--- a/сметы/смета_шаблон.xlsx
+++ b/сметы/смета_шаблон.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotel\OneDrive\Рабочий стол\ГУАП\курсовая чернышев\сметы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotel\PycharmProjects\pythonProject3\сметы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8A51F9-1320-42F0-972C-F88F11C19CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7110DCD-9DCF-40D2-ABC5-B479048B212B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smeta" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,6 +30,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
+    <t>Видео</t>
+  </si>
+  <si>
+    <t>Звук</t>
+  </si>
+  <si>
     <t>Наименование</t>
   </si>
   <si>
@@ -48,10 +51,46 @@
     <t>Итого</t>
   </si>
   <si>
+    <t>Свет</t>
+  </si>
+  <si>
+    <t>Прочее</t>
+  </si>
+  <si>
+    <t>Расходная часть</t>
+  </si>
+  <si>
+    <t>Итого видео:</t>
+  </si>
+  <si>
+    <t>монтаж/демонтаж</t>
+  </si>
+  <si>
+    <t>Итого звук:</t>
+  </si>
+  <si>
+    <t>видеоинженер</t>
+  </si>
+  <si>
+    <t>Итого свет:</t>
+  </si>
+  <si>
+    <t>звукорежиссер</t>
+  </si>
+  <si>
+    <t>Итого прочее:</t>
+  </si>
+  <si>
+    <t>художник по свету</t>
+  </si>
+  <si>
     <t>Итого за оборудование:</t>
   </si>
   <si>
-    <t>Расходная часть</t>
+    <t>дежурный техник</t>
+  </si>
+  <si>
+    <t>транспорт</t>
   </si>
   <si>
     <t>Итого расходная часть:</t>
@@ -61,48 +100,6 @@
   </si>
   <si>
     <t>Итого, оплата УСН:</t>
-  </si>
-  <si>
-    <t>монтаж/демонтаж</t>
-  </si>
-  <si>
-    <t>видеоинженер</t>
-  </si>
-  <si>
-    <t>транспорт</t>
-  </si>
-  <si>
-    <t>Видео</t>
-  </si>
-  <si>
-    <t>Звук</t>
-  </si>
-  <si>
-    <t>Итого видео:</t>
-  </si>
-  <si>
-    <t>Итого звук:</t>
-  </si>
-  <si>
-    <t>Свет</t>
-  </si>
-  <si>
-    <t>Итого свет:</t>
-  </si>
-  <si>
-    <t>звукорежиссер</t>
-  </si>
-  <si>
-    <t>художник по свету</t>
-  </si>
-  <si>
-    <t>Прочее</t>
-  </si>
-  <si>
-    <t>Итого прочее:</t>
-  </si>
-  <si>
-    <t>дежурный техник</t>
   </si>
 </sst>
 </file>
@@ -112,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,25 +159,10 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="186"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -222,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -282,16 +264,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,87 +315,55 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -669,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,315 +663,759 @@
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>13</v>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
-      <c r="H1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="H1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="L2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6">
-        <f>C3*D3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6">
-        <f t="shared" ref="M3:M9" si="0">J3*K3*L3</f>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F17" si="0">C3*D3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M17" si="1">J3*K3*L3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F6" si="1">C4*D4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="H18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
+      <c r="A18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="A19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="D19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="E19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="K19" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="L19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6">
-        <f t="shared" ref="F20:F25" si="2">C20*D20*E20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6">
-        <f t="shared" ref="M20:M21" si="3">J20*K20*L20</f>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4">
+        <f t="shared" ref="F20:F36" si="2">C20*D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4">
+        <f t="shared" ref="M20:M36" si="3">J20*K20*L20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="6">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>6</v>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1000,238 +1423,243 @@
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="1" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="10">
+        <f>SUM(F3:F17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="1">
+        <f>C43</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" ref="F39:F44" si="4">C39*D39*E39</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="5">
+        <f>SUM(M3:M17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="34" t="s">
+      <c r="F40" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="5">
+        <f>SUM(F20:F36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="7">
-        <f>SUM(F3:F17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4">
-        <v>3000</v>
-      </c>
-      <c r="E39" s="5">
-        <v>2</v>
-      </c>
-      <c r="F39" s="6">
-        <f>C39*D39*E39</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="34" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="7">
-        <f>SUM(M3:M17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4">
+      <c r="I41" s="14"/>
+      <c r="J41" s="5">
+        <f>SUM(M20:M35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2">
         <v>5000</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="6">
-        <f t="shared" ref="F40:F44" si="4">C40*D40*E40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="34" t="s">
+      <c r="F42" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="7">
-        <f>SUM(F20:F36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="I42" s="14"/>
+      <c r="J42" s="6">
+        <f>SUM(J38:J41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4">
-        <v>7000</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="B43" s="15"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F43" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H41" s="34" t="s">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="6">
+        <f>SUM(F39:F44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="7">
-        <f>SUM(M20:M35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4">
-        <v>5000</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="8">
-        <f>SUM(J38:J41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="5">
+        <f>J42+F45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4">
-        <v>5000</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="8">
-        <f>SUM(F39:F44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="7">
-        <f>J42+F45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="7">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="5">
         <f>F47*1.1</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A47:E47"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A46:F46"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>